--- a/running_balance_fall2019_spring2020.xlsx
+++ b/running_balance_fall2019_spring2020.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ACM Running Balance Sheet Fall 2019-Spring 2020</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Cookies</t>
+  </si>
+  <si>
+    <t>Lanyards</t>
+  </si>
+  <si>
+    <t>Lanyards for badges</t>
   </si>
 </sst>
 </file>
@@ -198,9 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,12 +234,13 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -521,7 +525,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,30 +550,30 @@
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="17">
         <v>43698</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -577,25 +581,25 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>617.13</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>617.13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="17">
         <v>43706</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -607,17 +611,17 @@
       <c r="D5" s="1">
         <v>14</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.98</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>D5*E5</f>
         <v>41.72</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -625,16 +629,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>5.94</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F11" si="0">D6*E6</f>
         <v>5.94</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -644,33 +649,34 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1.98</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>5.9399999999999995</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>5.12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>5.12</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -678,17 +684,17 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.97</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>6.79</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -696,59 +702,59 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.88</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2.42</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>2.42</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6">
+      <c r="E12" s="9"/>
+      <c r="F12" s="5">
         <f>-SUM(F5:F11)</f>
         <v>-69.809999999999988</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>G3+F12</f>
         <v>547.32000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="17">
         <v>43706</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -756,37 +762,37 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
         <v>175</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f>G12+F14</f>
         <v>722.32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>43719</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -796,71 +802,92 @@
         <v>21</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
         <v>15</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f>G14-F17</f>
         <v>707.32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="17">
+        <v>43740</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="5">
+        <f>(D19*E19)</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="15">
+        <f>G17-F19</f>
+        <v>697.32</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
